--- a/TestData/editSyncOptions.xlsx
+++ b/TestData/editSyncOptions.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pranav Pawar\PycharmProjects\RMM_DataDriven\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EA7CF88-B2E8-4C34-9278-BA144373486C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B1B4538-8CA6-44E8-BAEB-E5BE4D5F1166}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2028" yWindow="3084" windowWidth="18756" windowHeight="9420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3072" yWindow="1776" windowWidth="18756" windowHeight="9420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="29">
   <si>
     <t>Sync Options</t>
   </si>
@@ -84,14 +84,41 @@
     <t>Host Number</t>
   </si>
   <si>
-    <t>OCI Trial</t>
+    <t>Event Script</t>
+  </si>
+  <si>
+    <t>Event Script Args</t>
+  </si>
+  <si>
+    <t>Exclude File System(s)</t>
+  </si>
+  <si>
+    <t>Include File System(s)</t>
+  </si>
+  <si>
+    <t>Filter File (Path)</t>
+  </si>
+  <si>
+    <t>Filter File (Option)</t>
+  </si>
+  <si>
+    <t>Upload Local File</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>D:\RackWare\trialLocalFile.txt</t>
+  </si>
+  <si>
+    <t>First Flow</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -103,6 +130,12 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -420,17 +453,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R3"/>
+  <dimension ref="A1:X3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="11.21875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="4.5546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7.88671875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17.88671875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15.5546875" bestFit="1" customWidth="1"/>
@@ -446,9 +479,15 @@
     <col min="16" max="16" width="17.21875" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="17.44140625" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="11" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="19.5546875" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="16" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="26.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>17</v>
       </c>
@@ -474,7 +513,7 @@
       <c r="Q1" s="3"/>
       <c r="R1" s="3"/>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A2" s="4"/>
       <c r="B2" s="4"/>
       <c r="C2" s="1" t="s">
@@ -525,19 +564,49 @@
       <c r="R2" s="1" t="s">
         <v>16</v>
       </c>
+      <c r="S2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="V2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="W2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="X2" s="1" t="s">
+        <v>23</v>
+      </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="B3">
         <v>1</v>
       </c>
-      <c r="D3" t="b">
-        <v>1</v>
-      </c>
-      <c r="E3" t="b">
-        <v>1</v>
+      <c r="S3" t="s">
+        <v>26</v>
+      </c>
+      <c r="T3" t="s">
+        <v>26</v>
+      </c>
+      <c r="U3" t="s">
+        <v>26</v>
+      </c>
+      <c r="V3" t="s">
+        <v>26</v>
+      </c>
+      <c r="W3" t="s">
+        <v>25</v>
+      </c>
+      <c r="X3" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -546,6 +615,7 @@
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
   </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/TestData/editSyncOptions.xlsx
+++ b/TestData/editSyncOptions.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pranav Pawar\PycharmProjects\RMM_DataDriven\TestData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pranav Pawar\PycharmProjects\RMM_DataDriven\TestData\firstFlow\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B1B4538-8CA6-44E8-BAEB-E5BE4D5F1166}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08B54D67-E357-4F97-A71E-CECC9EE121C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3072" yWindow="1776" windowWidth="18756" windowHeight="9420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="32">
   <si>
     <t>Sync Options</t>
   </si>
@@ -102,16 +102,25 @@
     <t>Filter File (Option)</t>
   </si>
   <si>
-    <t>Upload Local File</t>
-  </si>
-  <si>
     <t>NA</t>
   </si>
   <si>
-    <t>D:\RackWare\trialLocalFile.txt</t>
-  </si>
-  <si>
-    <t>First Flow</t>
+    <t>/opt/source.sh</t>
+  </si>
+  <si>
+    <t>172.29.31.111</t>
+  </si>
+  <si>
+    <t>172.29.31.183</t>
+  </si>
+  <si>
+    <t>psp-MyLinSecondFlow-src1</t>
+  </si>
+  <si>
+    <t>psp-MyLinSecondFlow-src2</t>
+  </si>
+  <si>
+    <t>Trial 2</t>
   </si>
 </sst>
 </file>
@@ -453,16 +462,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:X3"/>
+  <dimension ref="A1:X4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="11.21875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.44140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="4.5546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7.88671875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17.88671875" bestFit="1" customWidth="1"/>
@@ -479,12 +488,12 @@
     <col min="16" max="16" width="17.21875" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="17.44140625" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="9.109375" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="11" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13.21875" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="15.21875" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="19.5546875" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="19.33203125" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="16" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="26.21875" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:24" x14ac:dyDescent="0.3">
@@ -585,28 +594,54 @@
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>28</v>
-      </c>
-      <c r="B3">
-        <v>1</v>
+        <v>31</v>
+      </c>
+      <c r="B3" t="s">
+        <v>29</v>
       </c>
       <c r="S3" t="s">
         <v>26</v>
       </c>
       <c r="T3" t="s">
+        <v>27</v>
+      </c>
+      <c r="U3" t="s">
+        <v>25</v>
+      </c>
+      <c r="V3" t="s">
+        <v>25</v>
+      </c>
+      <c r="W3" t="s">
+        <v>25</v>
+      </c>
+      <c r="X3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B4" t="s">
+        <v>30</v>
+      </c>
+      <c r="S4" t="s">
         <v>26</v>
       </c>
-      <c r="U3" t="s">
-        <v>26</v>
-      </c>
-      <c r="V3" t="s">
-        <v>26</v>
-      </c>
-      <c r="W3" t="s">
-        <v>25</v>
-      </c>
-      <c r="X3" t="s">
-        <v>27</v>
+      <c r="T4" t="s">
+        <v>28</v>
+      </c>
+      <c r="U4" t="s">
+        <v>25</v>
+      </c>
+      <c r="V4" t="s">
+        <v>25</v>
+      </c>
+      <c r="W4" t="s">
+        <v>25</v>
+      </c>
+      <c r="X4" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
